--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -12,6 +12,8 @@
     <sheet name="Schedule-1" sheetId="2" r:id="rId2" state="visible"/>
     <sheet name="Schedule-2" sheetId="3" r:id="rId3" state="visible"/>
     <sheet name="Schedule-3" sheetId="4" r:id="rId4" state="visible"/>
+    <sheet name="Schedule-4" sheetId="5" r:id="rId5" state="visible"/>
+    <sheet name="Schedule-5" sheetId="6" r:id="rId6" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Пара</t>
   </si>
@@ -33,12 +35,6 @@
     <t>Группа 103</t>
   </si>
   <si>
-    <t>Группа 104</t>
-  </si>
-  <si>
-    <t>Группа 105</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -54,15 +50,79 @@
     <t>2</t>
   </si>
   <si>
-    <t>ENGLISH</t>
-  </si>
-  <si>
-    <t>TEACHER_X
-TEACHER_Y</t>
-  </si>
-  <si>
-    <t>302
-303</t>
+    <t>subject_three</t>
+  </si>
+  <si>
+    <t>teacher_three</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>subject_one</t>
+  </si>
+  <si>
+    <t>teacher_one</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>subject_two</t>
+  </si>
+  <si>
+    <t>teacher_two</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>subject_one (A)</t>
+  </si>
+  <si>
+    <t>subject_two (A)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>subject_two (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>teacher_two
+teacher_one</t>
+  </si>
+  <si>
+    <t>301
+201</t>
   </si>
   <si>
     <t>
@@ -77,43 +137,16 @@
 201</t>
   </si>
   <si>
-    <t>subject_two (A)</t>
-  </si>
-  <si>
-    <t>teacher_two</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>subject_four (A)</t>
-  </si>
-  <si>
-    <t>teacher_four</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>subject_three</t>
-  </si>
-  <si>
-    <t>teacher_three</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>subject_one (A)</t>
-  </si>
-  <si>
-    <t>teacher_one</t>
-  </si>
-  <si>
-    <t>201</t>
+    <t>subject_three (A)
+subject_two (B)</t>
+  </si>
+  <si>
+    <t>teacher_three
+teacher_two</t>
+  </si>
+  <si>
+    <t>401
+301</t>
   </si>
   <si>
     <t>
@@ -125,13 +158,7 @@
   </si>
   <si>
     <t>
-202</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>subject_two</t>
+301</t>
   </si>
   <si>
     <t>
@@ -143,40 +170,43 @@
   </si>
   <si>
     <t>
-203</t>
-  </si>
-  <si>
-    <t>subject_one</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>subject_three (A)</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>subject_four</t>
+401</t>
+  </si>
+  <si>
+    <t>subject_one (A)
+subject_two (B)</t>
+  </si>
+  <si>
+    <t>teacher_one
+teacher_two</t>
+  </si>
+  <si>
+    <t>201
+301</t>
+  </si>
+  <si>
+    <t>subject_two (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>teacher_two
+teacher_three</t>
+  </si>
+  <si>
+    <t>301
+401</t>
+  </si>
+  <si>
+    <t>subject_three (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>teacher_three
+teacher_one</t>
+  </si>
+  <si>
+    <t>401
+201</t>
   </si>
 </sst>
 </file>
@@ -569,7 +599,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -583,10 +613,6 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -608,292 +634,198 @@
       </c>
       <c r="I1" t="s"/>
       <c r="J1" t="s"/>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s"/>
-      <c r="M1" t="s"/>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s"/>
-      <c r="P1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P7" t="s">
-        <v>26</v>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -904,16 +836,10 @@
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -924,16 +850,10 @@
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -944,16 +864,10 @@
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -964,16 +878,10 @@
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -984,20 +892,12 @@
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1014,7 +914,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1028,10 +928,6 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1053,210 +949,98 @@
       </c>
       <c r="I1" t="s"/>
       <c r="J1" t="s"/>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s"/>
-      <c r="M1" t="s"/>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s"/>
-      <c r="P1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -1267,16 +1051,10 @@
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -1287,16 +1065,10 @@
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -1307,16 +1079,10 @@
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -1327,16 +1093,10 @@
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -1347,16 +1107,10 @@
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -1367,16 +1121,10 @@
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -1387,20 +1135,12 @@
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1417,7 +1157,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1431,10 +1171,6 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1456,136 +1192,411 @@
       </c>
       <c r="I1" t="s"/>
       <c r="J1" t="s"/>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" t="s"/>
-      <c r="M1" t="s"/>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s"/>
-      <c r="P1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
       <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" t="s">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="s"/>
       <c r="H4" t="s"/>
       <c r="I4" t="s"/>
       <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
       <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -1596,16 +1607,10 @@
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -1616,16 +1621,10 @@
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -1636,16 +1635,10 @@
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -1656,16 +1649,10 @@
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -1676,16 +1663,10 @@
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
-      <c r="L10" t="s"/>
-      <c r="M10" t="s"/>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
-      <c r="P10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -1696,16 +1677,10 @@
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
-      <c r="L11" t="s"/>
-      <c r="M11" t="s"/>
-      <c r="N11" t="s"/>
-      <c r="O11" t="s"/>
-      <c r="P11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -1716,16 +1691,10 @@
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
-      <c r="P12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -1736,20 +1705,273 @@
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
-      <c r="M13" t="s"/>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -9,11 +9,26 @@
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="1" r:id="rId1" state="visible"/>
-    <sheet name="Schedule-1" sheetId="2" r:id="rId2" state="visible"/>
-    <sheet name="Schedule-2" sheetId="3" r:id="rId3" state="visible"/>
-    <sheet name="Schedule-3" sheetId="4" r:id="rId4" state="visible"/>
-    <sheet name="Schedule-4" sheetId="5" r:id="rId5" state="visible"/>
-    <sheet name="Schedule-5" sheetId="6" r:id="rId6" state="visible"/>
+    <sheet name="Friday-1" sheetId="2" r:id="rId2" state="visible"/>
+    <sheet name="Saturday-2" sheetId="3" r:id="rId3" state="visible"/>
+    <sheet name="Sunday-3" sheetId="4" r:id="rId4" state="visible"/>
+    <sheet name="Monday-4" sheetId="5" r:id="rId5" state="visible"/>
+    <sheet name="Tuesday-5" sheetId="6" r:id="rId6" state="visible"/>
+    <sheet name="Wednesday-6" sheetId="7" r:id="rId7" state="visible"/>
+    <sheet name="Thursday-7" sheetId="8" r:id="rId8" state="visible"/>
+    <sheet name="Friday-8" sheetId="9" r:id="rId9" state="visible"/>
+    <sheet name="Saturday-9" sheetId="10" r:id="rId10" state="visible"/>
+    <sheet name="Sunday-10" sheetId="11" r:id="rId11" state="visible"/>
+    <sheet name="Monday-11" sheetId="12" r:id="rId12" state="visible"/>
+    <sheet name="Tuesday-12" sheetId="13" r:id="rId13" state="visible"/>
+    <sheet name="Wednesday-13" sheetId="14" r:id="rId14" state="visible"/>
+    <sheet name="Thursday-14" sheetId="15" r:id="rId15" state="visible"/>
+    <sheet name="Friday-15" sheetId="16" r:id="rId16" state="visible"/>
+    <sheet name="Saturday-16" sheetId="17" r:id="rId17" state="visible"/>
+    <sheet name="Sunday-17" sheetId="18" r:id="rId18" state="visible"/>
+    <sheet name="Monday-18" sheetId="19" r:id="rId19" state="visible"/>
+    <sheet name="Tuesday-19" sheetId="20" r:id="rId20" state="visible"/>
+    <sheet name="Wednesday-20" sheetId="21" r:id="rId21" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -21,18 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Пара</t>
   </si>
   <si>
     <t>Группа 101</t>
-  </si>
-  <si>
-    <t>Группа 102</t>
-  </si>
-  <si>
-    <t>Группа 103</t>
   </si>
   <si>
     <t>1</t>
@@ -50,15 +59,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>subject_three</t>
-  </si>
-  <si>
-    <t>teacher_three</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>subject_one</t>
   </si>
   <si>
@@ -71,16 +71,10 @@
     <t>3</t>
   </si>
   <si>
-    <t>subject_two</t>
+    <t>4</t>
   </si>
   <si>
-    <t>teacher_two</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>subject_one (A)</t>
   </si>
   <si>
     <t>5</t>
@@ -90,12 +84,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>subject_one (A)</t>
-  </si>
-  <si>
-    <t>subject_two (A)</t>
   </si>
   <si>
     <t>8</t>
@@ -113,40 +101,13 @@
     <t>12</t>
   </si>
   <si>
-    <t>subject_two (A)
-subject_one (B)</t>
+    <t>subject_two</t>
   </si>
   <si>
-    <t>teacher_two
-teacher_one</t>
+    <t>teacher_two</t>
   </si>
   <si>
-    <t>301
-201</t>
-  </si>
-  <si>
-    <t>
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>
-teacher_one</t>
-  </si>
-  <si>
-    <t>
-201</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_two</t>
-  </si>
-  <si>
-    <t>401
-301</t>
+    <t>301</t>
   </si>
   <si>
     <t>
@@ -162,6 +123,27 @@
   </si>
   <si>
     <t>
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_one</t>
+  </si>
+  <si>
+    <t>
+201</t>
+  </si>
+  <si>
+    <t>subject_three</t>
+  </si>
+  <si>
+    <t>teacher_three</t>
+  </si>
+  <si>
+    <t>subject_two (A)</t>
+  </si>
+  <si>
+    <t>
 subject_three (B)</t>
   </si>
   <si>
@@ -169,44 +151,7 @@
 teacher_three</t>
   </si>
   <si>
-    <t>
-401</t>
-  </si>
-  <si>
-    <t>subject_one (A)
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>teacher_one
-teacher_two</t>
-  </si>
-  <si>
-    <t>201
-301</t>
-  </si>
-  <si>
-    <t>subject_two (A)
-subject_three (B)</t>
-  </si>
-  <si>
-    <t>teacher_two
-teacher_three</t>
-  </si>
-  <si>
-    <t>301
-401</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_one</t>
-  </si>
-  <si>
-    <t>401
-201</t>
+    <t>subject_three (A)</t>
   </si>
 </sst>
 </file>
@@ -594,12 +539,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -609,10 +554,6 @@
   <cols>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -624,280 +565,1882 @@
       </c>
       <c r="C1" t="s"/>
       <c r="D1" t="s"/>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
       <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -914,7 +2457,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -924,10 +2467,6 @@
   <cols>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -939,208 +2478,136 @@
       </c>
       <c r="C1" t="s"/>
       <c r="D1" t="s"/>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
       <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1157,7 +2624,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1167,10 +2634,6 @@
   <cols>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1182,268 +2645,112 @@
       </c>
       <c r="C1" t="s"/>
       <c r="D1" t="s"/>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
       <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1460,7 +2767,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1470,10 +2777,6 @@
   <cols>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1485,232 +2788,130 @@
       </c>
       <c r="C1" t="s"/>
       <c r="D1" t="s"/>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+        <v>26</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
       <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1727,7 +2928,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -1737,10 +2938,6 @@
   <cols>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1752,226 +2949,553 @@
       </c>
       <c r="C1" t="s"/>
       <c r="D1" t="s"/>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
         <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
       <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
       <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
       <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
       <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
       <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
       <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Пара</t>
   </si>
@@ -32,6 +32,12 @@
     <t>Группа 103</t>
   </si>
   <si>
+    <t>Группа 104</t>
+  </si>
+  <si>
+    <t>Группа 105</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -47,6 +53,24 @@
     <t>1</t>
   </si>
   <si>
+    <t>subject_one</t>
+  </si>
+  <si>
+    <t>teacher_one</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>subject_three</t>
+  </si>
+  <si>
+    <t>teacher_three</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
     <t>subject_two</t>
   </si>
   <si>
@@ -56,27 +80,9 @@
     <t>301</t>
   </si>
   <si>
-    <t>subject_three</t>
-  </si>
-  <si>
-    <t>teacher_three</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>subject_one</t>
-  </si>
-  <si>
-    <t>teacher_one</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -105,42 +111,15 @@
   </si>
   <si>
     <t>subject_two (A)
-subject_three (B)</t>
+subject_one (B)</t>
   </si>
   <si>
     <t>teacher_two
-teacher_three</t>
+teacher_one</t>
   </si>
   <si>
     <t>301
-401</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_two</t>
-  </si>
-  <si>
-    <t>401
-301</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_one</t>
-  </si>
-  <si>
-    <t>401
 201</t>
-  </si>
-  <si>
-    <t>subject_one (A)</t>
   </si>
   <si>
     <t>subject_one (A)
@@ -153,6 +132,48 @@
   <si>
     <t>201
 301</t>
+  </si>
+  <si>
+    <t>subject_three (A)</t>
+  </si>
+  <si>
+    <t>subject_one (A)</t>
+  </si>
+  <si>
+    <t>
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_three</t>
+  </si>
+  <si>
+    <t>
+401</t>
+  </si>
+  <si>
+    <t>
+subject_two (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_two</t>
+  </si>
+  <si>
+    <t>
+301</t>
+  </si>
+  <si>
+    <t>
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_one</t>
+  </si>
+  <si>
+    <t>
+201</t>
   </si>
 </sst>
 </file>
@@ -545,7 +566,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -559,6 +580,10 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -580,210 +605,292 @@
       </c>
       <c r="I1" t="s"/>
       <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" t="s">
+      <c r="L4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="P6" t="s">
         <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
-      <c r="H8" t="s">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -794,10 +901,16 @@
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -808,10 +921,16 @@
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -822,10 +941,16 @@
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -836,10 +961,16 @@
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -850,12 +981,20 @@
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -872,7 +1011,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -886,6 +1025,10 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -907,122 +1050,204 @@
       </c>
       <c r="I1" t="s"/>
       <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
       <c r="I2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
         <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="true">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -1033,10 +1258,16 @@
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -1047,130 +1278,204 @@
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
+      <c r="O10" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" t="s">
-        <v>33</v>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
-      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Init" sheetId="1" r:id="rId1" state="visible"/>
     <sheet name="Friday-1" sheetId="2" r:id="rId2" state="visible"/>
     <sheet name="Saturday-2" sheetId="3" r:id="rId3" state="visible"/>
+    <sheet name="Sunday-3" sheetId="4" r:id="rId4" state="visible"/>
+    <sheet name="Monday-4" sheetId="5" r:id="rId5" state="visible"/>
+    <sheet name="Tuesday-5" sheetId="6" r:id="rId6" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -18,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Пара</t>
   </si>
@@ -53,6 +56,24 @@
     <t>1</t>
   </si>
   <si>
+    <t>subject_two</t>
+  </si>
+  <si>
+    <t>teacher_two</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>subject_three</t>
+  </si>
+  <si>
+    <t>teacher_three</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
     <t>subject_one</t>
   </si>
   <si>
@@ -62,24 +83,6 @@
     <t>201</t>
   </si>
   <si>
-    <t>subject_three</t>
-  </si>
-  <si>
-    <t>teacher_three</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>subject_two</t>
-  </si>
-  <si>
-    <t>teacher_two</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -108,6 +111,45 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>subject_two (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>teacher_two
+teacher_three</t>
+  </si>
+  <si>
+    <t>301
+401</t>
+  </si>
+  <si>
+    <t>subject_one (A)</t>
+  </si>
+  <si>
+    <t>subject_three (A)
+subject_two (B)</t>
+  </si>
+  <si>
+    <t>teacher_three
+teacher_two</t>
+  </si>
+  <si>
+    <t>401
+301</t>
+  </si>
+  <si>
+    <t>
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_one</t>
+  </si>
+  <si>
+    <t>
+201</t>
   </si>
   <si>
     <t>subject_two (A)
@@ -137,9 +179,6 @@
     <t>subject_three (A)</t>
   </si>
   <si>
-    <t>subject_one (A)</t>
-  </si>
-  <si>
     <t>
 subject_three (B)</t>
   </si>
@@ -152,6 +191,9 @@
 401</t>
   </si>
   <si>
+    <t>subject_two (A)</t>
+  </si>
+  <si>
     <t>
 subject_two (B)</t>
   </si>
@@ -164,15 +206,15 @@
 301</t>
   </si>
   <si>
-    <t>
+    <t>subject_three (A)
 subject_one (B)</t>
   </si>
   <si>
-    <t>
+    <t>teacher_three
 teacher_one</t>
   </si>
   <si>
-    <t>
+    <t>401
 201</t>
   </si>
 </sst>
@@ -670,27 +712,27 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
       <c r="K3" t="s">
         <v>17</v>
       </c>
@@ -708,35 +750,35 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
       </c>
       <c r="N4" t="s"/>
       <c r="O4" t="s"/>
@@ -747,26 +789,26 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="I5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
       <c r="K5" t="s">
         <v>11</v>
       </c>
@@ -784,53 +826,47 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="M6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
+      <c r="N6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
+      <c r="O6" t="s">
         <v>18</v>
       </c>
-      <c r="G6" t="s">
+      <c r="P6" t="s">
         <v>19</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
@@ -843,50 +879,50 @@
       <c r="J7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s">
+      <c r="K7" t="s">
         <v>14</v>
       </c>
-      <c r="O7" t="s">
+      <c r="L7" t="s">
         <v>15</v>
       </c>
-      <c r="P7" t="s">
+      <c r="M7" t="s">
         <v>16</v>
       </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s">
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
         <v>14</v>
       </c>
-      <c r="O8" t="s">
+      <c r="L8" t="s">
         <v>15</v>
       </c>
-      <c r="P8" t="s">
+      <c r="M8" t="s">
         <v>16</v>
       </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
@@ -1118,30 +1154,30 @@
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
-      <c r="E3" t="s">
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
@@ -1150,30 +1186,30 @@
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
-      <c r="E4" t="s">
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
+      <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="G4" t="s">
+      <c r="M4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
+      <c r="N4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
@@ -1182,68 +1218,62 @@
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="N6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
@@ -1290,181 +1320,1378 @@
         <v>25</v>
       </c>
       <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G13" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
       <c r="H9" t="s"/>
       <c r="I9" t="s"/>
       <c r="J9" t="s"/>
-      <c r="K9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="O9" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" t="s">
-        <v>13</v>
-      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="s"/>
       <c r="H10" t="s"/>
       <c r="I10" t="s"/>
       <c r="J10" t="s"/>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>43</v>
-      </c>
-      <c r="N10" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" t="s">
-        <v>13</v>
-      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="s"/>
       <c r="H11" t="s"/>
       <c r="I11" t="s"/>
       <c r="J11" t="s"/>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" t="s">
-        <v>16</v>
-      </c>
-      <c r="N11" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" t="s">
-        <v>45</v>
-      </c>
-      <c r="P11" t="s">
-        <v>46</v>
-      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
       <c r="H12" t="s"/>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" t="s">
-        <v>44</v>
-      </c>
-      <c r="O12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" t="s">
-        <v>46</v>
-      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
       <c r="E13" t="s"/>
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
       <c r="J13" t="s"/>
-      <c r="K13" t="s">
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" t="s">
         <v>14</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O6" t="s">
         <v>15</v>
       </c>
-      <c r="M13" t="s">
+      <c r="P6" t="s">
         <v>16</v>
       </c>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
       <c r="N13" t="s"/>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>

--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -14,6 +14,16 @@
     <sheet name="Sunday-3" sheetId="4" r:id="rId4" state="visible"/>
     <sheet name="Monday-4" sheetId="5" r:id="rId5" state="visible"/>
     <sheet name="Tuesday-5" sheetId="6" r:id="rId6" state="visible"/>
+    <sheet name="Wednesday-6" sheetId="7" r:id="rId7" state="visible"/>
+    <sheet name="Thursday-7" sheetId="8" r:id="rId8" state="visible"/>
+    <sheet name="Friday-8" sheetId="9" r:id="rId9" state="visible"/>
+    <sheet name="Saturday-9" sheetId="10" r:id="rId10" state="visible"/>
+    <sheet name="Sunday-10" sheetId="11" r:id="rId11" state="visible"/>
+    <sheet name="Monday-11" sheetId="12" r:id="rId12" state="visible"/>
+    <sheet name="Tuesday-12" sheetId="13" r:id="rId13" state="visible"/>
+    <sheet name="Wednesday-13" sheetId="14" r:id="rId14" state="visible"/>
+    <sheet name="Thursday-14" sheetId="15" r:id="rId15" state="visible"/>
+    <sheet name="Friday-15" sheetId="16" r:id="rId16" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -21,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Пара</t>
   </si>
@@ -65,6 +75,27 @@
     <t>301</t>
   </si>
   <si>
+    <t>subject_four</t>
+  </si>
+  <si>
+    <t>teacher_four</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>subject_five</t>
+  </si>
+  <si>
+    <t>teacher_five</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>subject_three</t>
   </si>
   <si>
@@ -74,6 +105,42 @@
     <t>401</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>subject_six</t>
+  </si>
+  <si>
+    <t>teacher_six</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>subject_one</t>
   </si>
   <si>
@@ -83,61 +150,211 @@
     <t>201</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
+    <t>subject_six (A)
+subject_five (B)</t>
+  </si>
+  <si>
+    <t>teacher_six
+teacher_five</t>
+  </si>
+  <si>
+    <t>404
+403</t>
+  </si>
+  <si>
+    <t>subject_three (A)</t>
+  </si>
+  <si>
+    <t>subject_three (A)
+subject_five (B)</t>
+  </si>
+  <si>
+    <t>teacher_three
+teacher_five</t>
+  </si>
+  <si>
+    <t>401
+403</t>
+  </si>
+  <si>
+    <t>subject_five (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>teacher_five
+teacher_three</t>
+  </si>
+  <si>
+    <t>403
+401</t>
+  </si>
+  <si>
+    <t>subject_five (A)</t>
+  </si>
+  <si>
+    <t>
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_three</t>
+  </si>
+  <si>
+    <t>
+401</t>
+  </si>
+  <si>
+    <t>
+subject_two (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_two</t>
+  </si>
+  <si>
+    <t>
+301</t>
+  </si>
+  <si>
+    <t>
+subject_six (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_six</t>
+  </si>
+  <si>
+    <t>
+404</t>
+  </si>
+  <si>
+    <t>subject_four (A)</t>
+  </si>
+  <si>
+    <t>subject_one (A)
+subject_two (B)</t>
+  </si>
+  <si>
+    <t>teacher_one
+teacher_two</t>
+  </si>
+  <si>
+    <t>201
+301</t>
+  </si>
+  <si>
+    <t>subject_three (A)
+subject_six (B)</t>
+  </si>
+  <si>
+    <t>teacher_three
+teacher_six</t>
+  </si>
+  <si>
+    <t>401
+404</t>
   </si>
   <si>
     <t>subject_two (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>teacher_two
+teacher_one</t>
+  </si>
+  <si>
+    <t>301
+201</t>
+  </si>
+  <si>
+    <t>subject_six (A)
 subject_three (B)</t>
   </si>
   <si>
+    <t>teacher_six
+teacher_three</t>
+  </si>
+  <si>
+    <t>404
+401</t>
+  </si>
+  <si>
+    <t>
+subject_five (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_five</t>
+  </si>
+  <si>
+    <t>
+403</t>
+  </si>
+  <si>
+    <t>subject_two (A)</t>
+  </si>
+  <si>
+    <t>subject_six (A)</t>
+  </si>
+  <si>
+    <t>
+subject_four (B)</t>
+  </si>
+  <si>
+    <t>
+teacher_four</t>
+  </si>
+  <si>
+    <t>
+402</t>
+  </si>
+  <si>
+    <t>subject_three (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>teacher_three
+teacher_one</t>
+  </si>
+  <si>
+    <t>401
+201</t>
+  </si>
+  <si>
+    <t>subject_one (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>teacher_one
+teacher_three</t>
+  </si>
+  <si>
+    <t>201
+401</t>
+  </si>
+  <si>
+    <t>subject_four (A)
+subject_five (B)</t>
+  </si>
+  <si>
+    <t>teacher_four
+teacher_five</t>
+  </si>
+  <si>
+    <t>402
+403</t>
+  </si>
+  <si>
+    <t>subject_two (A)
+subject_four (B)</t>
+  </si>
+  <si>
     <t>teacher_two
-teacher_three</t>
+teacher_four</t>
   </si>
   <si>
     <t>301
-401</t>
-  </si>
-  <si>
-    <t>subject_one (A)</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_two</t>
-  </si>
-  <si>
-    <t>401
-301</t>
+402</t>
   </si>
   <si>
     <t>
@@ -152,70 +369,91 @@
 201</t>
   </si>
   <si>
-    <t>subject_two (A)
+    <t>subject_four (A)
 subject_one (B)</t>
   </si>
   <si>
-    <t>teacher_two
+    <t>teacher_four
 teacher_one</t>
   </si>
   <si>
-    <t>301
+    <t>402
 201</t>
   </si>
   <si>
     <t>subject_one (A)
-subject_two (B)</t>
+subject_four (B)</t>
   </si>
   <si>
     <t>teacher_one
-teacher_two</t>
+teacher_four</t>
   </si>
   <si>
     <t>201
-301</t>
-  </si>
-  <si>
-    <t>subject_three (A)</t>
-  </si>
-  <si>
-    <t>
+402</t>
+  </si>
+  <si>
+    <t>subject_one (A)</t>
+  </si>
+  <si>
+    <t>subject_five (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>teacher_five
+teacher_one</t>
+  </si>
+  <si>
+    <t>403
+201</t>
+  </si>
+  <si>
+    <t>subject_six (A)
+subject_four (B)</t>
+  </si>
+  <si>
+    <t>teacher_six
+teacher_four</t>
+  </si>
+  <si>
+    <t>404
+402</t>
+  </si>
+  <si>
+    <t>subject_four (A)
 subject_three (B)</t>
   </si>
   <si>
-    <t>
+    <t>teacher_four
 teacher_three</t>
   </si>
   <si>
-    <t>
+    <t>402
 401</t>
   </si>
   <si>
-    <t>subject_two (A)</t>
-  </si>
-  <si>
-    <t>
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>
-teacher_two</t>
-  </si>
-  <si>
-    <t>
-301</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_one</t>
-  </si>
-  <si>
-    <t>401
-201</t>
+    <t>subject_four (A)
+subject_six (B)</t>
+  </si>
+  <si>
+    <t>teacher_four
+teacher_six</t>
+  </si>
+  <si>
+    <t>402
+404</t>
+  </si>
+  <si>
+    <t>subject_five (A)
+subject_four (B)</t>
+  </si>
+  <si>
+    <t>teacher_five
+teacher_four</t>
+  </si>
+  <si>
+    <t>403
+402</t>
   </si>
 </sst>
 </file>
@@ -603,6 +841,2593 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M5" t="s">
+        <v>116</v>
+      </c>
+      <c r="N5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -712,36 +3537,36 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
         <v>19</v>
       </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
       <c r="N3" t="s"/>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -750,56 +3575,68 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>15</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" t="s">
         <v>14</v>
       </c>
@@ -809,22 +3646,22 @@
       <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -832,23 +3669,17 @@
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>13</v>
-      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
         <v>17</v>
@@ -862,7 +3693,7 @@
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -870,23 +3701,17 @@
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" t="s">
-        <v>13</v>
-      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
@@ -894,7 +3719,7 @@
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -902,23 +3727,17 @@
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
-      <c r="H8" t="s">
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>16</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
@@ -926,7 +3745,7 @@
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -946,7 +3765,7 @@
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -966,7 +3785,7 @@
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -986,7 +3805,7 @@
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -1006,7 +3825,7 @@
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -1151,101 +3970,149 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
       <c r="K3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
       <c r="K5" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
         <v>36</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>37</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>38</v>
-      </c>
-      <c r="P5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -1256,28 +4123,22 @@
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
-      <c r="K6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
-      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -1297,7 +4158,7 @@
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -1317,29 +4178,17 @@
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" t="s">
-        <v>42</v>
-      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
       <c r="M9" t="s"/>
@@ -1349,29 +4198,17 @@
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
       <c r="M10" t="s"/>
@@ -1381,29 +4218,17 @@
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" t="s">
-        <v>45</v>
-      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
       <c r="M11" t="s"/>
@@ -1413,35 +4238,17 @@
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
       <c r="M12" t="s"/>
@@ -1451,35 +4258,17 @@
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
       <c r="M13" t="s"/>
@@ -1652,7 +4441,7 @@
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -1672,7 +4461,7 @@
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
@@ -1692,7 +4481,7 @@
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
@@ -1712,7 +4501,7 @@
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="s"/>
@@ -1732,7 +4521,7 @@
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -1752,7 +4541,7 @@
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -1772,7 +4561,7 @@
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -1792,7 +4581,7 @@
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -1812,7 +4601,7 @@
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -1960,30 +4749,36 @@
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
@@ -1992,64 +4787,76 @@
       <c r="B4" t="s"/>
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="P4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
         <v>11</v>
@@ -2063,16 +4870,16 @@
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
@@ -2081,103 +4888,85 @@
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" t="s">
-        <v>16</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" t="s">
-        <v>16</v>
-      </c>
+      <c r="K7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
       <c r="H8" t="s"/>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P8" t="s">
-        <v>16</v>
-      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -2197,7 +4986,7 @@
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -2217,7 +5006,7 @@
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -2237,7 +5026,7 @@
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -2257,7 +5046,7 @@
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -2403,98 +5192,98 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
       <c r="M3" t="s"/>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
       <c r="M4" t="s"/>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>52</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
@@ -2502,66 +5291,96 @@
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
+      <c r="H7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="O7" t="s">
         <v>12</v>
@@ -2572,33 +5391,45 @@
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
-      <c r="L8" t="s"/>
-      <c r="M8" t="s"/>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
-      <c r="P8" t="s"/>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="s"/>
@@ -2618,7 +5449,7 @@
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s"/>
       <c r="C10" t="s"/>
@@ -2638,7 +5469,7 @@
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="s"/>
@@ -2658,7 +5489,7 @@
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s"/>
       <c r="C12" t="s"/>
@@ -2678,7 +5509,1354 @@
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
         <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
+        <v>93</v>
+      </c>
+      <c r="M3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s"/>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="N5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s"/>
+      <c r="E13" t="s"/>
+      <c r="F13" t="s"/>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:P13"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="30" customWidth="true"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="true">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s"/>
+      <c r="D1" t="s"/>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s"/>
+      <c r="G1" t="s"/>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s"/>
+      <c r="J1" t="s"/>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s"/>
+      <c r="M1" t="s"/>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" t="s"/>
+      <c r="P1" t="s"/>
+    </row>
+    <row r="2" ht="30" customHeight="true">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="true">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="true">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="true">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" ht="30" customHeight="true">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s"/>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" ht="30" customHeight="true">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="30" customHeight="true">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
+      <c r="E8" t="s"/>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="s"/>
+    </row>
+    <row r="9" ht="30" customHeight="true">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s"/>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+    </row>
+    <row r="10" ht="30" customHeight="true">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
+      <c r="E10" t="s"/>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+    </row>
+    <row r="11" ht="30" customHeight="true">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
+      <c r="E11" t="s"/>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+    </row>
+    <row r="12" ht="30" customHeight="true">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s"/>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
+    </row>
+    <row r="13" ht="30" customHeight="true">
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>

--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Пара</t>
   </si>
@@ -73,6 +73,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>subject_three</t>
   </si>
   <si>
@@ -82,9 +85,6 @@
     <t>401</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -107,6 +107,57 @@
   </si>
   <si>
     <t>11</t>
+  </si>
+  <si>
+    <t>subject_two (A)</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>subject_two (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t>teacher_two
+teacher_three</t>
+  </si>
+  <si>
+    <t>302
+401</t>
+  </si>
+  <si>
+    <t>subject_one (A)</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>subject_three (A)</t>
+  </si>
+  <si>
+    <t>subject_one (A)
+subject_two (B)</t>
+  </si>
+  <si>
+    <t>teacher_one
+teacher_two</t>
+  </si>
+  <si>
+    <t>202
+302</t>
+  </si>
+  <si>
+    <t>subject_two (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t>teacher_two
+teacher_one</t>
+  </si>
+  <si>
+    <t>302
+202</t>
   </si>
   <si>
     <t>
@@ -121,12 +172,6 @@
 202</t>
   </si>
   <si>
-    <t>subject_two (A)</t>
-  </si>
-  <si>
-    <t>302</t>
-  </si>
-  <si>
     <t>subject_three (A)
 subject_two (B)</t>
   </si>
@@ -139,24 +184,6 @@
 302</t>
   </si>
   <si>
-    <t>subject_one (A)</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>subject_two (A)
-subject_three (B)</t>
-  </si>
-  <si>
-    <t>teacher_two
-teacher_three</t>
-  </si>
-  <si>
-    <t>302
-401</t>
-  </si>
-  <si>
     <t>
 subject_two (B)</t>
   </si>
@@ -169,15 +196,15 @@
 302</t>
   </si>
   <si>
-    <t>
+    <t>subject_one (A)
 subject_three (B)</t>
   </si>
   <si>
-    <t>
+    <t>teacher_one
 teacher_three</t>
   </si>
   <si>
-    <t>
+    <t>202
 401</t>
   </si>
   <si>
@@ -191,18 +218,6 @@
   <si>
     <t>401
 202</t>
-  </si>
-  <si>
-    <t>subject_one (A)
-subject_three (B)</t>
-  </si>
-  <si>
-    <t>teacher_one
-teacher_three</t>
-  </si>
-  <si>
-    <t>202
-401</t>
   </si>
 </sst>
 </file>
@@ -702,13 +717,13 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -719,19 +734,13 @@
       <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -743,22 +752,22 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
@@ -772,13 +781,13 @@
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
@@ -791,9 +800,15 @@
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
@@ -980,18 +995,18 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="s"/>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
       <c r="H3" t="s">
         <v>12</v>
       </c>
@@ -1006,73 +1021,67 @@
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="s"/>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="s"/>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" t="s"/>
       <c r="F6" t="s"/>
       <c r="G6" t="s"/>
@@ -1084,9 +1093,15 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
@@ -1098,9 +1113,15 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
@@ -1279,73 +1300,79 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s">
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s"/>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" t="s">
-        <v>36</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="B4" t="s">
         <v>35</v>
       </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s"/>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
         <v>36</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
       <c r="D5" t="s"/>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
@@ -1354,17 +1381,23 @@
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
@@ -1399,15 +1432,9 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
@@ -1419,15 +1446,9 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s"/>
       <c r="E10" t="s"/>
       <c r="F10" t="s"/>
       <c r="G10" t="s"/>
@@ -1439,15 +1460,9 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s"/>
       <c r="E11" t="s"/>
       <c r="F11" t="s"/>
       <c r="G11" t="s"/>
@@ -1459,15 +1474,9 @@
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s"/>
       <c r="E12" t="s"/>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
@@ -1593,18 +1602,18 @@
       <c r="B3" t="s"/>
       <c r="C3" t="s"/>
       <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
@@ -1614,66 +1623,60 @@
       <c r="C4" t="s"/>
       <c r="D4" t="s"/>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s">
-        <v>32</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s"/>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -1682,9 +1685,15 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
       <c r="E7" t="s"/>
       <c r="F7" t="s"/>
       <c r="G7" t="s"/>
@@ -1696,15 +1705,9 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s"/>
       <c r="E8" t="s"/>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
@@ -1716,15 +1719,9 @@
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s"/>
       <c r="E9" t="s"/>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
@@ -1890,56 +1887,44 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s"/>
       <c r="F3" t="s"/>
       <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s"/>
       <c r="F4" t="s"/>
       <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -1947,9 +1932,15 @@
       <c r="E5" t="s"/>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
@@ -1958,9 +1949,15 @@
       <c r="B6" t="s"/>
       <c r="C6" t="s"/>
       <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
@@ -1972,9 +1969,15 @@
       <c r="B7" t="s"/>
       <c r="C7" t="s"/>
       <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
       <c r="H7" t="s"/>
       <c r="I7" t="s"/>
       <c r="J7" t="s"/>
@@ -2190,7 +2193,7 @@
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>
@@ -2441,7 +2444,7 @@
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s"/>
       <c r="C5" t="s"/>

--- a/output/schedule.xlsx
+++ b/output/schedule.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Thursday-4" sheetId="5" r:id="rId5" state="visible"/>
     <sheet name="Friday-5" sheetId="6" r:id="rId6" state="visible"/>
     <sheet name="Saturday-6" sheetId="7" r:id="rId7" state="visible"/>
-    <sheet name="Sunday-7" sheetId="8" r:id="rId8" state="visible"/>
   </sheets>
   <definedNames/>
   <calcPr iterateCount="100" refMode="A1" iterateDelta="0.001"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Пара</t>
   </si>
@@ -61,6 +60,18 @@
     <t>201</t>
   </si>
   <si>
+    <t>subject_three</t>
+  </si>
+  <si>
+    <t>teacher_three</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>subject_two</t>
   </si>
   <si>
@@ -70,21 +81,9 @@
     <t>301</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>subject_three</t>
-  </si>
-  <si>
-    <t>teacher_three</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -109,114 +108,102 @@
     <t>11</t>
   </si>
   <si>
+    <t xml:space="preserve">
+subject_two (B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+teacher_two</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+302</t>
+  </si>
+  <si>
+    <t>subject_three (A)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject_three (A)
+subject_one (B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher_three
+teacher_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401
+202</t>
+  </si>
+  <si>
     <t>subject_two (A)</t>
   </si>
   <si>
     <t>302</t>
   </si>
   <si>
-    <t>subject_two (A)
+    <t xml:space="preserve">subject_one (A)
 subject_three (B)</t>
   </si>
   <si>
-    <t>teacher_two
+    <t xml:space="preserve">teacher_one
 teacher_three</t>
   </si>
   <si>
-    <t>302
+    <t xml:space="preserve">202
 401</t>
   </si>
   <si>
+    <t xml:space="preserve">
+subject_three (B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+teacher_three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+subject_one (B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+teacher_one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+202</t>
+  </si>
+  <si>
     <t>subject_one (A)</t>
   </si>
   <si>
     <t>202</t>
   </si>
   <si>
-    <t>subject_three (A)</t>
-  </si>
-  <si>
-    <t>subject_one (A)
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>teacher_one
-teacher_two</t>
-  </si>
-  <si>
-    <t>202
-302</t>
-  </si>
-  <si>
-    <t>subject_two (A)
+    <t xml:space="preserve">subject_two (A)
+subject_three (B)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher_two
+teacher_three</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302
+401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subject_two (A)
 subject_one (B)</t>
   </si>
   <si>
-    <t>teacher_two
+    <t xml:space="preserve">teacher_two
 teacher_one</t>
   </si>
   <si>
-    <t>302
-202</t>
-  </si>
-  <si>
-    <t>
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>
-teacher_one</t>
-  </si>
-  <si>
-    <t>
-202</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_two</t>
-  </si>
-  <si>
-    <t>401
-302</t>
-  </si>
-  <si>
-    <t>
-subject_two (B)</t>
-  </si>
-  <si>
-    <t>
-teacher_two</t>
-  </si>
-  <si>
-    <t>
-302</t>
-  </si>
-  <si>
-    <t>subject_one (A)
-subject_three (B)</t>
-  </si>
-  <si>
-    <t>teacher_one
-teacher_three</t>
-  </si>
-  <si>
-    <t>202
-401</t>
-  </si>
-  <si>
-    <t>subject_three (A)
-subject_one (B)</t>
-  </si>
-  <si>
-    <t>teacher_three
-teacher_one</t>
-  </si>
-  <si>
-    <t>401
+    <t xml:space="preserve">302
 202</t>
   </si>
 </sst>
@@ -595,13 +582,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -618,20 +598,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10" customWidth="true"/>
+    <col max="4" min="3" style="0" width="30" customWidth="true"/>
+    <col max="5" min="5" style="0" width="10" customWidth="true"/>
+    <col max="7" min="6" style="0" width="30" customWidth="true"/>
+    <col max="8" min="8" style="0" width="10" customWidth="true"/>
+    <col max="10" min="9" style="0" width="30" customWidth="true"/>
+    <col max="11" min="11" style="0" width="10" customWidth="true"/>
+    <col max="14" min="14" style="0" width="10" customWidth="true"/>
+    <col max="17" min="17" style="0" width="10" customWidth="true"/>
+    <col max="20" min="20" style="0" width="10" customWidth="true"/>
+    <col max="23" min="23" style="0" width="10" customWidth="true"/>
+    <col max="26" min="26" style="0" width="10" customWidth="true"/>
+    <col max="29" min="29" style="0" width="10" customWidth="true"/>
+    <col max="32" min="32" style="0" width="10" customWidth="true"/>
+    <col max="35" min="35" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -641,18 +621,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+      <c r="C1" t="s">
+        <v/>
+      </c>
+      <c r="D1" t="s">
+        <v/>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
+      <c r="F1" t="s">
+        <v/>
+      </c>
+      <c r="G1" t="s">
+        <v/>
+      </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
+      <c r="I1" t="s">
+        <v/>
+      </c>
+      <c r="J1" t="s">
+        <v/>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
@@ -691,208 +683,352 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v/>
+      </c>
+      <c r="C3" t="s">
+        <v/>
+      </c>
+      <c r="D3" t="s">
+        <v/>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v/>
+      </c>
+      <c r="F5" t="s">
+        <v/>
+      </c>
+      <c r="G5" t="s">
+        <v/>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v/>
+      </c>
+      <c r="F6" t="s">
+        <v/>
+      </c>
+      <c r="G6" t="s">
+        <v/>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v/>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v/>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v/>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
+      <c r="B7" t="s">
+        <v/>
+      </c>
+      <c r="C7" t="s">
+        <v/>
+      </c>
+      <c r="D7" t="s">
+        <v/>
+      </c>
+      <c r="E7" t="s">
+        <v/>
+      </c>
+      <c r="F7" t="s">
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v/>
+      </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v/>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v/>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v/>
       </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+      <c r="B8" t="s">
+        <v/>
+      </c>
+      <c r="C8" t="s">
+        <v/>
+      </c>
+      <c r="D8" t="s">
+        <v/>
+      </c>
+      <c r="E8" t="s">
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v/>
+      </c>
+      <c r="I8" t="s">
+        <v/>
+      </c>
+      <c r="J8" t="s">
+        <v/>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
+      <c r="B9" t="s">
+        <v/>
+      </c>
+      <c r="C9" t="s">
+        <v/>
+      </c>
+      <c r="D9" t="s">
+        <v/>
+      </c>
+      <c r="E9" t="s">
+        <v/>
+      </c>
+      <c r="F9" t="s">
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v/>
+      </c>
+      <c r="H9" t="s">
+        <v/>
+      </c>
+      <c r="I9" t="s">
+        <v/>
+      </c>
+      <c r="J9" t="s">
+        <v/>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
+      <c r="B10" t="s">
+        <v/>
+      </c>
+      <c r="C10" t="s">
+        <v/>
+      </c>
+      <c r="D10" t="s">
+        <v/>
+      </c>
+      <c r="E10" t="s">
+        <v/>
+      </c>
+      <c r="F10" t="s">
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v/>
+      </c>
+      <c r="H10" t="s">
+        <v/>
+      </c>
+      <c r="I10" t="s">
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v/>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
+      <c r="B11" t="s">
+        <v/>
+      </c>
+      <c r="C11" t="s">
+        <v/>
+      </c>
+      <c r="D11" t="s">
+        <v/>
+      </c>
+      <c r="E11" t="s">
+        <v/>
+      </c>
+      <c r="F11" t="s">
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v/>
+      </c>
+      <c r="H11" t="s">
+        <v/>
+      </c>
+      <c r="I11" t="s">
+        <v/>
+      </c>
+      <c r="J11" t="s">
+        <v/>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
+      <c r="B12" t="s">
+        <v/>
+      </c>
+      <c r="C12" t="s">
+        <v/>
+      </c>
+      <c r="D12" t="s">
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v/>
+      </c>
+      <c r="H12" t="s">
+        <v/>
+      </c>
+      <c r="I12" t="s">
+        <v/>
+      </c>
+      <c r="J12" t="s">
+        <v/>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
+      <c r="B13" t="s">
+        <v/>
+      </c>
+      <c r="C13" t="s">
+        <v/>
+      </c>
+      <c r="D13" t="s">
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v/>
+      </c>
+      <c r="H13" t="s">
+        <v/>
+      </c>
+      <c r="I13" t="s">
+        <v/>
+      </c>
+      <c r="J13" t="s">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -900,13 +1036,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -923,20 +1052,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10" customWidth="true"/>
+    <col max="4" min="3" style="0" width="30" customWidth="true"/>
+    <col max="5" min="5" style="0" width="10" customWidth="true"/>
+    <col max="7" min="6" style="0" width="30" customWidth="true"/>
+    <col max="8" min="8" style="0" width="10" customWidth="true"/>
+    <col max="10" min="9" style="0" width="30" customWidth="true"/>
+    <col max="11" min="11" style="0" width="10" customWidth="true"/>
+    <col max="14" min="14" style="0" width="10" customWidth="true"/>
+    <col max="17" min="17" style="0" width="10" customWidth="true"/>
+    <col max="20" min="20" style="0" width="10" customWidth="true"/>
+    <col max="23" min="23" style="0" width="10" customWidth="true"/>
+    <col max="26" min="26" style="0" width="10" customWidth="true"/>
+    <col max="29" min="29" style="0" width="10" customWidth="true"/>
+    <col max="32" min="32" style="0" width="10" customWidth="true"/>
+    <col max="35" min="35" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -946,18 +1075,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+      <c r="C1" t="s">
+        <v/>
+      </c>
+      <c r="D1" t="s">
+        <v/>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
+      <c r="F1" t="s">
+        <v/>
+      </c>
+      <c r="G1" t="s">
+        <v/>
+      </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
+      <c r="I1" t="s">
+        <v/>
+      </c>
+      <c r="J1" t="s">
+        <v/>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
@@ -995,69 +1136,87 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
+      <c r="B3" t="s">
+        <v/>
+      </c>
+      <c r="C3" t="s">
+        <v/>
+      </c>
+      <c r="D3" t="s">
+        <v/>
+      </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -1082,122 +1241,248 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+      <c r="E6" t="s">
+        <v/>
+      </c>
+      <c r="F6" t="s">
+        <v/>
+      </c>
+      <c r="G6" t="s">
+        <v/>
+      </c>
+      <c r="H6" t="s">
+        <v/>
+      </c>
+      <c r="I6" t="s">
+        <v/>
+      </c>
+      <c r="J6" t="s">
+        <v/>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v/>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v/>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+        <v/>
+      </c>
+      <c r="E7" t="s">
+        <v/>
+      </c>
+      <c r="F7" t="s">
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v/>
+      </c>
+      <c r="H7" t="s">
+        <v/>
+      </c>
+      <c r="I7" t="s">
+        <v/>
+      </c>
+      <c r="J7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v/>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v/>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+        <v/>
+      </c>
+      <c r="E8" t="s">
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v/>
+      </c>
+      <c r="I8" t="s">
+        <v/>
+      </c>
+      <c r="J8" t="s">
+        <v/>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
+      <c r="B9" t="s">
+        <v/>
+      </c>
+      <c r="C9" t="s">
+        <v/>
+      </c>
+      <c r="D9" t="s">
+        <v/>
+      </c>
+      <c r="E9" t="s">
+        <v/>
+      </c>
+      <c r="F9" t="s">
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v/>
+      </c>
+      <c r="H9" t="s">
+        <v/>
+      </c>
+      <c r="I9" t="s">
+        <v/>
+      </c>
+      <c r="J9" t="s">
+        <v/>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
+      <c r="B10" t="s">
+        <v/>
+      </c>
+      <c r="C10" t="s">
+        <v/>
+      </c>
+      <c r="D10" t="s">
+        <v/>
+      </c>
+      <c r="E10" t="s">
+        <v/>
+      </c>
+      <c r="F10" t="s">
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v/>
+      </c>
+      <c r="H10" t="s">
+        <v/>
+      </c>
+      <c r="I10" t="s">
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v/>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
+      <c r="B11" t="s">
+        <v/>
+      </c>
+      <c r="C11" t="s">
+        <v/>
+      </c>
+      <c r="D11" t="s">
+        <v/>
+      </c>
+      <c r="E11" t="s">
+        <v/>
+      </c>
+      <c r="F11" t="s">
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v/>
+      </c>
+      <c r="H11" t="s">
+        <v/>
+      </c>
+      <c r="I11" t="s">
+        <v/>
+      </c>
+      <c r="J11" t="s">
+        <v/>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
+      <c r="B12" t="s">
+        <v/>
+      </c>
+      <c r="C12" t="s">
+        <v/>
+      </c>
+      <c r="D12" t="s">
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v/>
+      </c>
+      <c r="H12" t="s">
+        <v/>
+      </c>
+      <c r="I12" t="s">
+        <v/>
+      </c>
+      <c r="J12" t="s">
+        <v/>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
+      <c r="B13" t="s">
+        <v/>
+      </c>
+      <c r="C13" t="s">
+        <v/>
+      </c>
+      <c r="D13" t="s">
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v/>
+      </c>
+      <c r="H13" t="s">
+        <v/>
+      </c>
+      <c r="I13" t="s">
+        <v/>
+      </c>
+      <c r="J13" t="s">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1205,13 +1490,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -1228,20 +1506,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10" customWidth="true"/>
+    <col max="4" min="3" style="0" width="30" customWidth="true"/>
+    <col max="5" min="5" style="0" width="10" customWidth="true"/>
+    <col max="7" min="6" style="0" width="30" customWidth="true"/>
+    <col max="8" min="8" style="0" width="10" customWidth="true"/>
+    <col max="10" min="9" style="0" width="30" customWidth="true"/>
+    <col max="11" min="11" style="0" width="10" customWidth="true"/>
+    <col max="14" min="14" style="0" width="10" customWidth="true"/>
+    <col max="17" min="17" style="0" width="10" customWidth="true"/>
+    <col max="20" min="20" style="0" width="10" customWidth="true"/>
+    <col max="23" min="23" style="0" width="10" customWidth="true"/>
+    <col max="26" min="26" style="0" width="10" customWidth="true"/>
+    <col max="29" min="29" style="0" width="10" customWidth="true"/>
+    <col max="32" min="32" style="0" width="10" customWidth="true"/>
+    <col max="35" min="35" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1251,18 +1529,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+      <c r="C1" t="s">
+        <v/>
+      </c>
+      <c r="D1" t="s">
+        <v/>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
+      <c r="F1" t="s">
+        <v/>
+      </c>
+      <c r="G1" t="s">
+        <v/>
+      </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
+      <c r="I1" t="s">
+        <v/>
+      </c>
+      <c r="J1" t="s">
+        <v/>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
@@ -1301,25 +1591,31 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
       <c r="H3" t="s">
-        <v>33</v>
+        <v/>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v/>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v/>
       </c>
     </row>
     <row r="4" ht="30" customHeight="true">
@@ -1327,176 +1623,320 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v/>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v/>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v/>
       </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v/>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v/>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v/>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v/>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v/>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v/>
       </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+      <c r="B7" t="s">
+        <v/>
+      </c>
+      <c r="C7" t="s">
+        <v/>
+      </c>
+      <c r="D7" t="s">
+        <v/>
+      </c>
+      <c r="E7" t="s">
+        <v/>
+      </c>
+      <c r="F7" t="s">
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v/>
+      </c>
+      <c r="H7" t="s">
+        <v/>
+      </c>
+      <c r="I7" t="s">
+        <v/>
+      </c>
+      <c r="J7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+      <c r="B8" t="s">
+        <v/>
+      </c>
+      <c r="C8" t="s">
+        <v/>
+      </c>
+      <c r="D8" t="s">
+        <v/>
+      </c>
+      <c r="E8" t="s">
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v/>
+      </c>
+      <c r="I8" t="s">
+        <v/>
+      </c>
+      <c r="J8" t="s">
+        <v/>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
+      <c r="B9" t="s">
+        <v/>
+      </c>
+      <c r="C9" t="s">
+        <v/>
+      </c>
+      <c r="D9" t="s">
+        <v/>
+      </c>
+      <c r="E9" t="s">
+        <v/>
+      </c>
+      <c r="F9" t="s">
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v/>
+      </c>
+      <c r="H9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
+      <c r="B10" t="s">
+        <v/>
+      </c>
+      <c r="C10" t="s">
+        <v/>
+      </c>
+      <c r="D10" t="s">
+        <v/>
+      </c>
+      <c r="E10" t="s">
+        <v/>
+      </c>
+      <c r="F10" t="s">
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v/>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
+      <c r="B11" t="s">
+        <v/>
+      </c>
+      <c r="C11" t="s">
+        <v/>
+      </c>
+      <c r="D11" t="s">
+        <v/>
+      </c>
+      <c r="E11" t="s">
+        <v/>
+      </c>
+      <c r="F11" t="s">
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v/>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
+      <c r="B12" t="s">
+        <v/>
+      </c>
+      <c r="C12" t="s">
+        <v/>
+      </c>
+      <c r="D12" t="s">
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v/>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
+      <c r="B13" t="s">
+        <v/>
+      </c>
+      <c r="C13" t="s">
+        <v/>
+      </c>
+      <c r="D13" t="s">
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v/>
+      </c>
+      <c r="H13" t="s">
+        <v/>
+      </c>
+      <c r="I13" t="s">
+        <v/>
+      </c>
+      <c r="J13" t="s">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1504,13 +1944,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -1527,20 +1960,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10" customWidth="true"/>
+    <col max="4" min="3" style="0" width="30" customWidth="true"/>
+    <col max="5" min="5" style="0" width="10" customWidth="true"/>
+    <col max="7" min="6" style="0" width="30" customWidth="true"/>
+    <col max="8" min="8" style="0" width="10" customWidth="true"/>
+    <col max="10" min="9" style="0" width="30" customWidth="true"/>
+    <col max="11" min="11" style="0" width="10" customWidth="true"/>
+    <col max="14" min="14" style="0" width="10" customWidth="true"/>
+    <col max="17" min="17" style="0" width="10" customWidth="true"/>
+    <col max="20" min="20" style="0" width="10" customWidth="true"/>
+    <col max="23" min="23" style="0" width="10" customWidth="true"/>
+    <col max="26" min="26" style="0" width="10" customWidth="true"/>
+    <col max="29" min="29" style="0" width="10" customWidth="true"/>
+    <col max="32" min="32" style="0" width="10" customWidth="true"/>
+    <col max="35" min="35" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1550,18 +1983,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+      <c r="C1" t="s">
+        <v/>
+      </c>
+      <c r="D1" t="s">
+        <v/>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
+      <c r="F1" t="s">
+        <v/>
+      </c>
+      <c r="G1" t="s">
+        <v/>
+      </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
+      <c r="I1" t="s">
+        <v/>
+      </c>
+      <c r="J1" t="s">
+        <v/>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
@@ -1599,191 +2044,353 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
+      <c r="B3" t="s">
+        <v/>
+      </c>
+      <c r="C3" t="s">
+        <v/>
+      </c>
+      <c r="D3" t="s">
+        <v/>
+      </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
       </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v/>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v/>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v/>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v/>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v/>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+        <v/>
+      </c>
+      <c r="H5" t="s">
+        <v/>
+      </c>
+      <c r="I5" t="s">
+        <v/>
+      </c>
+      <c r="J5" t="s">
+        <v/>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v/>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v/>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+        <v/>
+      </c>
+      <c r="E6" t="s">
+        <v/>
+      </c>
+      <c r="F6" t="s">
+        <v/>
+      </c>
+      <c r="G6" t="s">
+        <v/>
+      </c>
+      <c r="H6" t="s">
+        <v/>
+      </c>
+      <c r="I6" t="s">
+        <v/>
+      </c>
+      <c r="J6" t="s">
+        <v/>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v/>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v/>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+        <v/>
+      </c>
+      <c r="E7" t="s">
+        <v/>
+      </c>
+      <c r="F7" t="s">
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v/>
+      </c>
+      <c r="H7" t="s">
+        <v/>
+      </c>
+      <c r="I7" t="s">
+        <v/>
+      </c>
+      <c r="J7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+      <c r="B8" t="s">
+        <v/>
+      </c>
+      <c r="C8" t="s">
+        <v/>
+      </c>
+      <c r="D8" t="s">
+        <v/>
+      </c>
+      <c r="E8" t="s">
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v/>
+      </c>
+      <c r="I8" t="s">
+        <v/>
+      </c>
+      <c r="J8" t="s">
+        <v/>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
+      <c r="B9" t="s">
+        <v/>
+      </c>
+      <c r="C9" t="s">
+        <v/>
+      </c>
+      <c r="D9" t="s">
+        <v/>
+      </c>
+      <c r="E9" t="s">
+        <v/>
+      </c>
+      <c r="F9" t="s">
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v/>
+      </c>
+      <c r="H9" t="s">
+        <v/>
+      </c>
+      <c r="I9" t="s">
+        <v/>
+      </c>
+      <c r="J9" t="s">
+        <v/>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
+      <c r="B10" t="s">
+        <v/>
+      </c>
+      <c r="C10" t="s">
+        <v/>
+      </c>
+      <c r="D10" t="s">
+        <v/>
+      </c>
+      <c r="E10" t="s">
+        <v/>
+      </c>
+      <c r="F10" t="s">
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v/>
+      </c>
+      <c r="H10" t="s">
+        <v/>
+      </c>
+      <c r="I10" t="s">
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v/>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
+      <c r="B11" t="s">
+        <v/>
+      </c>
+      <c r="C11" t="s">
+        <v/>
+      </c>
+      <c r="D11" t="s">
+        <v/>
+      </c>
+      <c r="E11" t="s">
+        <v/>
+      </c>
+      <c r="F11" t="s">
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v/>
+      </c>
+      <c r="H11" t="s">
+        <v/>
+      </c>
+      <c r="I11" t="s">
+        <v/>
+      </c>
+      <c r="J11" t="s">
+        <v/>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
+      <c r="B12" t="s">
+        <v/>
+      </c>
+      <c r="C12" t="s">
+        <v/>
+      </c>
+      <c r="D12" t="s">
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v/>
+      </c>
+      <c r="H12" t="s">
+        <v/>
+      </c>
+      <c r="I12" t="s">
+        <v/>
+      </c>
+      <c r="J12" t="s">
+        <v/>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
+      <c r="B13" t="s">
+        <v/>
+      </c>
+      <c r="C13" t="s">
+        <v/>
+      </c>
+      <c r="D13" t="s">
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v/>
+      </c>
+      <c r="H13" t="s">
+        <v/>
+      </c>
+      <c r="I13" t="s">
+        <v/>
+      </c>
+      <c r="J13" t="s">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1791,13 +2398,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -1814,20 +2414,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10" customWidth="true"/>
+    <col max="4" min="3" style="0" width="30" customWidth="true"/>
+    <col max="5" min="5" style="0" width="10" customWidth="true"/>
+    <col max="7" min="6" style="0" width="30" customWidth="true"/>
+    <col max="8" min="8" style="0" width="10" customWidth="true"/>
+    <col max="10" min="9" style="0" width="30" customWidth="true"/>
+    <col max="11" min="11" style="0" width="10" customWidth="true"/>
+    <col max="14" min="14" style="0" width="10" customWidth="true"/>
+    <col max="17" min="17" style="0" width="10" customWidth="true"/>
+    <col max="20" min="20" style="0" width="10" customWidth="true"/>
+    <col max="23" min="23" style="0" width="10" customWidth="true"/>
+    <col max="26" min="26" style="0" width="10" customWidth="true"/>
+    <col max="29" min="29" style="0" width="10" customWidth="true"/>
+    <col max="32" min="32" style="0" width="10" customWidth="true"/>
+    <col max="35" min="35" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -1837,18 +2437,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+      <c r="C1" t="s">
+        <v/>
+      </c>
+      <c r="D1" t="s">
+        <v/>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
+      <c r="F1" t="s">
+        <v/>
+      </c>
+      <c r="G1" t="s">
+        <v/>
+      </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
+      <c r="I1" t="s">
+        <v/>
+      </c>
+      <c r="J1" t="s">
+        <v/>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
@@ -1887,184 +2499,352 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v/>
+      </c>
+      <c r="I3" t="s">
+        <v/>
+      </c>
+      <c r="J3" t="s">
+        <v/>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v/>
+      </c>
+      <c r="F4" t="s">
+        <v/>
+      </c>
+      <c r="G4" t="s">
+        <v/>
+      </c>
+      <c r="H4" t="s">
+        <v/>
+      </c>
+      <c r="I4" t="s">
+        <v/>
+      </c>
+      <c r="J4" t="s">
+        <v/>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v/>
+      </c>
+      <c r="F5" t="s">
+        <v/>
+      </c>
+      <c r="G5" t="s">
+        <v/>
+      </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v/>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v/>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v/>
       </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
+      <c r="B6" t="s">
+        <v/>
+      </c>
+      <c r="C6" t="s">
+        <v/>
+      </c>
+      <c r="D6" t="s">
+        <v/>
+      </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v/>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v/>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+        <v/>
+      </c>
+      <c r="H6" t="s">
+        <v/>
+      </c>
+      <c r="I6" t="s">
+        <v/>
+      </c>
+      <c r="J6" t="s">
+        <v/>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
+      <c r="B7" t="s">
+        <v/>
+      </c>
+      <c r="C7" t="s">
+        <v/>
+      </c>
+      <c r="D7" t="s">
+        <v/>
+      </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v/>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v/>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+        <v/>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+      <c r="B8" t="s">
+        <v/>
+      </c>
+      <c r="C8" t="s">
+        <v/>
+      </c>
+      <c r="D8" t="s">
+        <v/>
+      </c>
+      <c r="E8" t="s">
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
+      <c r="B9" t="s">
+        <v/>
+      </c>
+      <c r="C9" t="s">
+        <v/>
+      </c>
+      <c r="D9" t="s">
+        <v/>
+      </c>
+      <c r="E9" t="s">
+        <v/>
+      </c>
+      <c r="F9" t="s">
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v/>
+      </c>
+      <c r="H9" t="s">
+        <v/>
+      </c>
+      <c r="I9" t="s">
+        <v/>
+      </c>
+      <c r="J9" t="s">
+        <v/>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
+      <c r="B10" t="s">
+        <v/>
+      </c>
+      <c r="C10" t="s">
+        <v/>
+      </c>
+      <c r="D10" t="s">
+        <v/>
+      </c>
+      <c r="E10" t="s">
+        <v/>
+      </c>
+      <c r="F10" t="s">
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v/>
+      </c>
+      <c r="H10" t="s">
+        <v/>
+      </c>
+      <c r="I10" t="s">
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v/>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
+      <c r="B11" t="s">
+        <v/>
+      </c>
+      <c r="C11" t="s">
+        <v/>
+      </c>
+      <c r="D11" t="s">
+        <v/>
+      </c>
+      <c r="E11" t="s">
+        <v/>
+      </c>
+      <c r="F11" t="s">
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v/>
+      </c>
+      <c r="H11" t="s">
+        <v/>
+      </c>
+      <c r="I11" t="s">
+        <v/>
+      </c>
+      <c r="J11" t="s">
+        <v/>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
+      <c r="B12" t="s">
+        <v/>
+      </c>
+      <c r="C12" t="s">
+        <v/>
+      </c>
+      <c r="D12" t="s">
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v/>
+      </c>
+      <c r="H12" t="s">
+        <v/>
+      </c>
+      <c r="I12" t="s">
+        <v/>
+      </c>
+      <c r="J12" t="s">
+        <v/>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
+      <c r="B13" t="s">
+        <v/>
+      </c>
+      <c r="C13" t="s">
+        <v/>
+      </c>
+      <c r="D13" t="s">
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v/>
+      </c>
+      <c r="H13" t="s">
+        <v/>
+      </c>
+      <c r="I13" t="s">
+        <v/>
+      </c>
+      <c r="J13" t="s">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2072,13 +2852,6 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -2095,20 +2868,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10" customWidth="true"/>
+    <col max="4" min="3" style="0" width="30" customWidth="true"/>
+    <col max="5" min="5" style="0" width="10" customWidth="true"/>
+    <col max="7" min="6" style="0" width="30" customWidth="true"/>
+    <col max="8" min="8" style="0" width="10" customWidth="true"/>
+    <col max="10" min="9" style="0" width="30" customWidth="true"/>
+    <col max="11" min="11" style="0" width="10" customWidth="true"/>
+    <col max="14" min="14" style="0" width="10" customWidth="true"/>
+    <col max="17" min="17" style="0" width="10" customWidth="true"/>
+    <col max="20" min="20" style="0" width="10" customWidth="true"/>
+    <col max="23" min="23" style="0" width="10" customWidth="true"/>
+    <col max="26" min="26" style="0" width="10" customWidth="true"/>
+    <col max="29" min="29" style="0" width="10" customWidth="true"/>
+    <col max="32" min="32" style="0" width="10" customWidth="true"/>
+    <col max="35" min="35" style="0" width="10" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="true">
@@ -2118,18 +2891,30 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
+      <c r="C1" t="s">
+        <v/>
+      </c>
+      <c r="D1" t="s">
+        <v/>
+      </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
+      <c r="F1" t="s">
+        <v/>
+      </c>
+      <c r="G1" t="s">
+        <v/>
+      </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
+      <c r="I1" t="s">
+        <v/>
+      </c>
+      <c r="J1" t="s">
+        <v/>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="true">
       <c r="A2" t="s">
@@ -2167,155 +2952,353 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
+      <c r="B3" t="s">
+        <v/>
+      </c>
+      <c r="C3" t="s">
+        <v/>
+      </c>
+      <c r="D3" t="s">
+        <v/>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" t="s">
+        <v/>
+      </c>
+      <c r="I3" t="s">
+        <v/>
+      </c>
+      <c r="J3" t="s">
+        <v/>
+      </c>
     </row>
     <row r="4" ht="30" customHeight="true">
       <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
+      <c r="B4" t="s">
+        <v/>
+      </c>
+      <c r="C4" t="s">
+        <v/>
+      </c>
+      <c r="D4" t="s">
+        <v/>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v/>
+      </c>
+      <c r="I4" t="s">
+        <v/>
+      </c>
+      <c r="J4" t="s">
+        <v/>
+      </c>
     </row>
     <row r="5" ht="30" customHeight="true">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v/>
+      </c>
+      <c r="C5" t="s">
+        <v/>
+      </c>
+      <c r="D5" t="s">
+        <v/>
+      </c>
+      <c r="E5" t="s">
+        <v/>
+      </c>
+      <c r="F5" t="s">
+        <v/>
+      </c>
+      <c r="G5" t="s">
+        <v/>
+      </c>
+      <c r="H5" t="s">
+        <v/>
+      </c>
+      <c r="I5" t="s">
+        <v/>
+      </c>
+      <c r="J5" t="s">
+        <v/>
+      </c>
     </row>
     <row r="6" ht="30" customHeight="true">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
+      <c r="B6" t="s">
+        <v/>
+      </c>
+      <c r="C6" t="s">
+        <v/>
+      </c>
+      <c r="D6" t="s">
+        <v/>
+      </c>
+      <c r="E6" t="s">
+        <v/>
+      </c>
+      <c r="F6" t="s">
+        <v/>
+      </c>
+      <c r="G6" t="s">
+        <v/>
+      </c>
+      <c r="H6" t="s">
+        <v/>
+      </c>
+      <c r="I6" t="s">
+        <v/>
+      </c>
+      <c r="J6" t="s">
+        <v/>
+      </c>
     </row>
     <row r="7" ht="30" customHeight="true">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
+      <c r="B7" t="s">
+        <v/>
+      </c>
+      <c r="C7" t="s">
+        <v/>
+      </c>
+      <c r="D7" t="s">
+        <v/>
+      </c>
+      <c r="E7" t="s">
+        <v/>
+      </c>
+      <c r="F7" t="s">
+        <v/>
+      </c>
+      <c r="G7" t="s">
+        <v/>
+      </c>
+      <c r="H7" t="s">
+        <v/>
+      </c>
+      <c r="I7" t="s">
+        <v/>
+      </c>
+      <c r="J7" t="s">
+        <v/>
+      </c>
     </row>
     <row r="8" ht="30" customHeight="true">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
+      <c r="B8" t="s">
+        <v/>
+      </c>
+      <c r="C8" t="s">
+        <v/>
+      </c>
+      <c r="D8" t="s">
+        <v/>
+      </c>
+      <c r="E8" t="s">
+        <v/>
+      </c>
+      <c r="F8" t="s">
+        <v/>
+      </c>
+      <c r="G8" t="s">
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v/>
+      </c>
+      <c r="I8" t="s">
+        <v/>
+      </c>
+      <c r="J8" t="s">
+        <v/>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="true">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
+      <c r="B9" t="s">
+        <v/>
+      </c>
+      <c r="C9" t="s">
+        <v/>
+      </c>
+      <c r="D9" t="s">
+        <v/>
+      </c>
+      <c r="E9" t="s">
+        <v/>
+      </c>
+      <c r="F9" t="s">
+        <v/>
+      </c>
+      <c r="G9" t="s">
+        <v/>
+      </c>
+      <c r="H9" t="s">
+        <v/>
+      </c>
+      <c r="I9" t="s">
+        <v/>
+      </c>
+      <c r="J9" t="s">
+        <v/>
+      </c>
     </row>
     <row r="10" ht="30" customHeight="true">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
+      <c r="B10" t="s">
+        <v/>
+      </c>
+      <c r="C10" t="s">
+        <v/>
+      </c>
+      <c r="D10" t="s">
+        <v/>
+      </c>
+      <c r="E10" t="s">
+        <v/>
+      </c>
+      <c r="F10" t="s">
+        <v/>
+      </c>
+      <c r="G10" t="s">
+        <v/>
+      </c>
+      <c r="H10" t="s">
+        <v/>
+      </c>
+      <c r="I10" t="s">
+        <v/>
+      </c>
+      <c r="J10" t="s">
+        <v/>
+      </c>
     </row>
     <row r="11" ht="30" customHeight="true">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
+      <c r="B11" t="s">
+        <v/>
+      </c>
+      <c r="C11" t="s">
+        <v/>
+      </c>
+      <c r="D11" t="s">
+        <v/>
+      </c>
+      <c r="E11" t="s">
+        <v/>
+      </c>
+      <c r="F11" t="s">
+        <v/>
+      </c>
+      <c r="G11" t="s">
+        <v/>
+      </c>
+      <c r="H11" t="s">
+        <v/>
+      </c>
+      <c r="I11" t="s">
+        <v/>
+      </c>
+      <c r="J11" t="s">
+        <v/>
+      </c>
     </row>
     <row r="12" ht="30" customHeight="true">
       <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
+      <c r="B12" t="s">
+        <v/>
+      </c>
+      <c r="C12" t="s">
+        <v/>
+      </c>
+      <c r="D12" t="s">
+        <v/>
+      </c>
+      <c r="E12" t="s">
+        <v/>
+      </c>
+      <c r="F12" t="s">
+        <v/>
+      </c>
+      <c r="G12" t="s">
+        <v/>
+      </c>
+      <c r="H12" t="s">
+        <v/>
+      </c>
+      <c r="I12" t="s">
+        <v/>
+      </c>
+      <c r="J12" t="s">
+        <v/>
+      </c>
     </row>
     <row r="13" ht="30" customHeight="true">
       <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
+      <c r="B13" t="s">
+        <v/>
+      </c>
+      <c r="C13" t="s">
+        <v/>
+      </c>
+      <c r="D13" t="s">
+        <v/>
+      </c>
+      <c r="E13" t="s">
+        <v/>
+      </c>
+      <c r="F13" t="s">
+        <v/>
+      </c>
+      <c r="G13" t="s">
+        <v/>
+      </c>
+      <c r="H13" t="s">
+        <v/>
+      </c>
+      <c r="I13" t="s">
+        <v/>
+      </c>
+      <c r="J13" t="s">
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2323,263 +3306,5 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.85"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="30" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="10" customWidth="true"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="10" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" customHeight="true">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s"/>
-      <c r="G1" t="s"/>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s"/>
-      <c r="J1" t="s"/>
-    </row>
-    <row r="2" ht="30" customHeight="true">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="30" customHeight="true">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-    </row>
-    <row r="4" ht="30" customHeight="true">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-    </row>
-    <row r="5" ht="30" customHeight="true">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
-      <c r="D5" t="s"/>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-    </row>
-    <row r="6" ht="30" customHeight="true">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
-      <c r="D6" t="s"/>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-    </row>
-    <row r="7" ht="30" customHeight="true">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
-      <c r="D7" t="s"/>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-    </row>
-    <row r="8" ht="30" customHeight="true">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
-      <c r="D8" t="s"/>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-    </row>
-    <row r="9" ht="30" customHeight="true">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
-      <c r="D9" t="s"/>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-    </row>
-    <row r="10" ht="30" customHeight="true">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
-      <c r="D10" t="s"/>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-    </row>
-    <row r="11" ht="30" customHeight="true">
-      <c r="A11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
-      <c r="D11" t="s"/>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-    </row>
-    <row r="12" ht="30" customHeight="true">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s"/>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-    </row>
-    <row r="13" ht="30" customHeight="true">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>